--- a/data/trans_orig/TAM_FAM-Edad-trans_orig.xlsx
+++ b/data/trans_orig/TAM_FAM-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>3,76</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,53; 3,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 4,14</t>
+          <t>3,2; 3,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,23; 3,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 3,96</t>
+          <t>3,52; 3,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,43; 3,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 4,35</t>
+          <t>3,22; 3,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,22; 3,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 4,14</t>
+          <t>3,57; 4,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,52; 3,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,79; 4,17</t>
+          <t>3,28; 3,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,26; 3,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 3,99</t>
+          <t>3,61; 3,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>3,16</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,94; 3,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 4,47</t>
+          <t>2,54; 2,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,38; 2,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 4,21</t>
+          <t>2,99; 3,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,94; 3,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 4,5</t>
+          <t>2,41; 3,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,62; 2,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 4,08</t>
+          <t>3,0; 3,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,98; 3,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,37</t>
+          <t>2,49; 2,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,55; 2,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,11</t>
+          <t>3,04; 3,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>3,2</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,39</t>
+          <t>2,86; 3,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,81; 4,31</t>
+          <t>2,83; 3,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,69; 2,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 4,14</t>
+          <t>2,98; 3,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 4,03</t>
+          <t>3,05; 3,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 4,48</t>
+          <t>3,26; 3,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,01; 3,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 4,03</t>
+          <t>3,1; 3,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 4,05</t>
+          <t>2,98; 3,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 4,31</t>
+          <t>3,08; 3,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 3,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 4,05</t>
+          <t>3,1; 3,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>3,11</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 3,52</t>
+          <t>2,87; 3,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 3,93</t>
+          <t>2,86; 3,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 3,76</t>
+          <t>2,9; 3,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 3,8</t>
+          <t>2,95; 3,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 3,51</t>
+          <t>2,98; 3,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 4,07</t>
+          <t>3,19; 3,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 3,75</t>
+          <t>3,0; 3,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 3,76</t>
+          <t>2,95; 3,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 3,47</t>
+          <t>2,95; 3,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 3,93</t>
+          <t>3,07; 3,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 3,66</t>
+          <t>2,98; 3,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 3,75</t>
+          <t>3,0; 3,25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>2,64</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 2,66</t>
+          <t>2,57; 2,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,33</t>
+          <t>2,48; 2,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 2,87</t>
+          <t>2,42; 2,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,19</t>
+          <t>2,67; 3,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 2,94</t>
+          <t>2,43; 2,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 3,36</t>
+          <t>2,46; 2,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,1</t>
+          <t>2,14; 2,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,92; 3,17</t>
+          <t>2,35; 2,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 2,77</t>
+          <t>2,52; 2,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 3,29</t>
+          <t>2,49; 2,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 2,96</t>
+          <t>2,3; 2,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,13</t>
+          <t>2,53; 2,75</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>2,15</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,7; 2,94</t>
+          <t>2,07; 2,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,29</t>
+          <t>2,04; 2,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 3,1</t>
+          <t>2,04; 2,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,85; 3,05</t>
+          <t>2,19; 2,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,24</t>
+          <t>1,94; 2,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,11; 3,49</t>
+          <t>1,99; 2,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,31; 3,48</t>
+          <t>1,89; 2,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,13; 3,33</t>
+          <t>1,89; 2,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,06</t>
+          <t>2,03; 2,12</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,09; 3,32</t>
+          <t>2,05; 2,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,13; 3,26</t>
+          <t>1,98; 2,07</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 3,16</t>
+          <t>2,06; 2,26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>2,02</t>
         </is>
       </c>
     </row>
@@ -1564,69 +1564,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,11</t>
+          <t>1,96; 2,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,32</t>
+          <t>1,85; 2,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,87; 3,21</t>
+          <t>1,92; 2,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,07</t>
+          <t>1,89; 2,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,19</t>
+          <t>1,75; 1,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,25</t>
+          <t>1,55; 1,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,17; 3,33</t>
+          <t>1,78; 1,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,15</t>
+          <t>1,9; 2,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,11</t>
+          <t>1,85; 1,94</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,23</t>
+          <t>1,69; 1,84</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,05; 3,22</t>
+          <t>1,86; 1,98</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,08</t>
+          <t>1,92; 2,12</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>2,82</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
         <is>
           <t>2,65</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>2,47</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>2,88</t>
         </is>
       </c>
     </row>
@@ -1704,507 +1704,84 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,39; 2,62</t>
+          <t>2,68; 2,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,67; 3,02</t>
+          <t>2,73; 3,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,44; 2,63</t>
+          <t>2,62; 2,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,57; 2,74</t>
+          <t>2,87; 3,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,15; 2,32</t>
+          <t>2,59; 2,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,36; 2,62</t>
+          <t>2,7; 2,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,4; 2,54</t>
+          <t>2,59; 2,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,46; 2,59</t>
+          <t>2,75; 2,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,44</t>
+          <t>2,64; 2,7</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,53; 2,75</t>
+          <t>2,75; 3,08</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,45; 2,56</t>
+          <t>2,62; 2,69</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,53; 2,64</t>
+          <t>2,83; 2,93</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>2,09</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2,14</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>2,14</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>2,15</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>2,12</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>2,06</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 2,16</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 2,42</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>2,02; 2,17</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 2,2</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 2,01</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 2,19</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 2,57</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>1,93; 2,03</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 2,07</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 2,26</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 2,43</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>2,02; 2,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 2,09</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>1,89; 2,13</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 1,98</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>1,97; 2,08</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 1,96</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 2,2</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 1,63</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>1,79; 1,9</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>1,89; 2,0</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>1,92; 2,12</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 1,74</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 1,96</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,56</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,73</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>2,81</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>2,75</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 2,6</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>3,03; 3,16</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>2,68; 2,8</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>2,87; 2,94</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 2,6</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 3,06</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>2,73; 2,82</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>2,77; 2,84</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>2,52; 2,58</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>2,99; 3,08</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>2,72; 2,79</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 2,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_orig/TAM_FAM-Edad-trans_orig.xlsx
+++ b/data/trans_orig/TAM_FAM-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de personas (Tamaño familiar)</t>
+          <t>Número de personas (Tamaño familiar) (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/TAM_FAM-Edad-trans_orig.xlsx
+++ b/data/trans_orig/TAM_FAM-Edad-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 3,75</t>
+          <t>3,63; 3,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 3,7</t>
+          <t>3,21; 3,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 3,93</t>
+          <t>3,53; 3,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 3,67</t>
+          <t>3,61; 3,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 3,7</t>
+          <t>3,19; 3,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 4,09</t>
+          <t>3,57; 4,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 3,68</t>
+          <t>3,65; 3,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 3,63</t>
+          <t>3,27; 3,63</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 3,92</t>
+          <t>3,62; 3,91</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 3,21</t>
+          <t>2,98; 3,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,54; 2,92</t>
+          <t>2,54; 2,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 3,36</t>
+          <t>2,97; 3,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 3,22</t>
+          <t>2,98; 3,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,1</t>
+          <t>2,4; 3,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,34</t>
+          <t>3,02; 3,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 3,16</t>
+          <t>3,01; 3,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 2,95</t>
+          <t>2,51; 2,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 3,3</t>
+          <t>3,03; 3,29</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,06</t>
+          <t>3,01; 3,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 3,14</t>
+          <t>2,83; 3,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 3,27</t>
+          <t>2,97; 3,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 3,28</t>
+          <t>3,18; 3,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 3,47</t>
+          <t>3,24; 3,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 3,49</t>
+          <t>3,11; 3,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 3,13</t>
+          <t>3,13; 3,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 3,26</t>
+          <t>3,08; 3,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 3,34</t>
+          <t>3,09; 3,33</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 3,06</t>
+          <t>3,08; 3,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,75</t>
+          <t>2,87; 3,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,34</t>
+          <t>2,96; 3,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,98; 3,13</t>
+          <t>3,08; 3,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 3,38</t>
+          <t>3,18; 3,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,26</t>
+          <t>2,96; 3,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,07</t>
+          <t>3,11; 3,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 3,25</t>
+          <t>3,0; 3,24</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 2,75</t>
+          <t>2,74; 2,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 2,72</t>
+          <t>2,47; 2,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 3,01</t>
+          <t>2,67; 3,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,43; 2,57</t>
+          <t>2,53; 2,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 2,61</t>
+          <t>2,35; 2,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,52; 2,64</t>
+          <t>2,65; 2,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 2,65</t>
+          <t>2,5; 2,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,53; 2,75</t>
+          <t>2,53; 2,76</t>
         </is>
       </c>
     </row>
@@ -1356,14 +1356,14 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>2,14</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,14</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
           <t>2,1</t>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 2,22</t>
+          <t>2,14; 2,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 2,27</t>
+          <t>2,04; 2,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 2,42</t>
+          <t>2,19; 2,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,94; 2,06</t>
+          <t>1,98; 2,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,81</t>
+          <t>1,98; 2,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,2</t>
+          <t>1,9; 2,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,12</t>
+          <t>2,08; 2,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 2,72</t>
+          <t>2,05; 2,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 2,09</t>
+          <t>1,98; 2,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,12</t>
+          <t>1,84; 2,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,13</t>
+          <t>1,89; 2,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 1,88</t>
+          <t>1,77; 1,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,55; 1,72</t>
+          <t>1,56; 1,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,9; 2,19</t>
+          <t>1,89; 2,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,85; 1,94</t>
+          <t>1,87; 1,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 1,84</t>
+          <t>1,69; 1,83</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 2,12</t>
+          <t>1,93; 2,13</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,68; 2,76</t>
+          <t>2,84; 2,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,73; 3,24</t>
+          <t>2,72; 3,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,12 +1719,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,87; 3,02</t>
+          <t>2,88; 3,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,59; 2,67</t>
+          <t>2,7; 2,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1744,12 +1744,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,64; 2,7</t>
+          <t>2,78; 2,83</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,75; 3,08</t>
+          <t>2,76; 3,08</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">

--- a/data/trans_orig/TAM_FAM-Edad-trans_orig.xlsx
+++ b/data/trans_orig/TAM_FAM-Edad-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>3,73</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,45</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,74</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3,78</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>3,71</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,43</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3,35</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>3,72</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,44</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>3,36</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>3,22; 3,67</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3,53; 3,92</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3,23; 3,53</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>3,63; 3,82</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,21; 3,7</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,23; 3,53</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,53; 3,92</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>3,25; 3,81</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3,57; 4,06</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 3,47</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>3,61; 3,82</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3,19; 3,71</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>3,22; 3,47</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>3,57; 4,06</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>3,32; 3,67</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 3,91</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3,26; 3,45</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>3,65; 3,8</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>3,27; 3,63</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>3,26; 3,45</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>3,62; 3,91</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3,14</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>3,1</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,14</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>3,11</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>3,11</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,6; 2,99</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 3,35</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 2,64</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>2,98; 3,21</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 2,94</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 2,64</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,97; 3,35</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>2,89; 3,2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 3,34</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 2,9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>2,98; 3,25</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,4; 3,1</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 2,9</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>3,02; 3,34</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>2,79; 3,04</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 3,29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 2,75</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>3,01; 3,19</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 2,94</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>2,55; 2,75</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>3,03; 3,29</t>
         </is>
       </c>
     </row>
@@ -936,14 +936,14 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,01</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>3,12</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,99</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
           <t>2,81</t>
@@ -956,32 +956,32 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,13</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>3,28</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,36</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,13</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,29</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>3,2</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,86; 3,16</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 3,28</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 2,93</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>3,01; 3,23</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 3,15</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 2,93</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,97; 3,28</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>3,32; 3,53</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3,11; 3,49</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 3,27</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>3,18; 3,39</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3,24; 3,47</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 3,27</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>3,11; 3,49</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>3,13; 3,31</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,09; 3,33</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 3,07</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>3,13; 3,28</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>3,08; 3,27</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>2,88; 3,07</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>3,09; 3,33</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>3,18</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,33</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,02</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,12</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>3,31</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>3,17</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3,13</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>3,11</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3,07</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>3,17</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>3,11</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,82; 3,07</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 3,35</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 3,17</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>3,08; 3,28</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,87; 3,74</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,9; 3,17</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 3,35</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>3,22; 3,4</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 3,26</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 3,21</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>3,08; 3,25</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,18; 3,37</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>3,0; 3,21</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,96; 3,26</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>3,04; 3,21</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 3,24</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2,98; 3,16</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>3,11; 3,24</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>3,07; 3,66</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 3,16</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>3,0; 3,24</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2,83</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,6</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>2,61</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,23</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>2,57</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>2,71</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>2,57</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>2,48; 2,72</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 3,02</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 2,68</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>2,74; 2,92</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2,47; 2,71</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 2,68</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 3,02</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>2,46; 2,64</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 2,62</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,14; 2,33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>2,53; 2,68</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 2,64</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>2,14; 2,33</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 2,62</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>2,5; 2,65</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 2,76</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 2,46</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>2,65; 2,77</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 2,66</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 2,46</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 2,76</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2,14</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>2,21</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,14</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>2,06</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,46</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>2,13</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>2,15</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>2,04; 2,26</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 2,43</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 2,17</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>2,14; 2,3</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 2,26</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 2,17</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 2,43</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>1,92; 2,11</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 2,2</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 2,02</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>1,98; 2,17</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 2,85</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,89; 2,02</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,9; 2,2</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>2,01; 2,15</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 2,26</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 2,07</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>2,08; 2,2</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>2,05; 2,75</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 2,07</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 2,26</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>2,05</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>1,84</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>1,92</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>1,76</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,84; 2,08</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 2,14</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 2,07</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>1,98; 2,15</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 2,09</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,92; 2,07</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,89; 2,14</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>1,55; 1,72</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 2,19</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 1,94</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>1,77; 1,92</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>1,56; 1,72</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>1,78; 1,94</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,89; 2,19</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>1,69; 1,83</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,93; 2,13</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 1,98</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>1,87; 1,98</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>1,69; 1,83</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 1,98</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>1,93; 2,13</t>
         </is>
       </c>
     </row>
@@ -1636,44 +1636,44 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,67</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>2,88</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>2,74</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>2,64</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>2,82</t>
-        </is>
-      </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
           <t>2,8</t>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>2,8</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>2,7; 2,83</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 3,01</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 2,72</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>2,84; 2,92</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2,72; 3,24</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 2,72</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>2,88; 3,01</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>2,79; 2,89</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 2,89</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 2,68</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>2,7; 2,77</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>2,7; 2,86</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 2,68</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 2,89</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
+          <t>2,76; 2,84</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2,83; 2,93</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 2,69</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>2,78; 2,83</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 3,08</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 2,69</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 2,93</t>
         </is>
       </c>
     </row>
